--- a/Python/output/case-study/FC_SA_FAresults.xlsx
+++ b/Python/output/case-study/FC_SA_FAresults.xlsx
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -404,16 +404,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5923547.1849999996</v>
+        <v>6364747.8672661697</v>
       </c>
       <c r="E2">
-        <v>871948.82059999998</v>
+        <v>873633.29803699895</v>
       </c>
       <c r="F2">
-        <v>56.680032969999999</v>
+        <v>48.762481927871697</v>
       </c>
       <c r="G2">
-        <v>4.0394370559999997</v>
+        <v>4.2374529838562003</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -427,16 +427,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2835150.7650000001</v>
+        <v>3486690.2033178098</v>
       </c>
       <c r="E3">
-        <v>193447.2175</v>
+        <v>222230.122905678</v>
       </c>
       <c r="F3">
-        <v>76.065546990000001</v>
+        <v>95.460665702819796</v>
       </c>
       <c r="G3">
-        <v>3.9752292630000001</v>
+        <v>5.1047639846801696</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2332893.7230000002</v>
+        <v>3130824.2604558999</v>
       </c>
       <c r="E4">
-        <v>143220.8057</v>
+        <v>195525.46190686501</v>
       </c>
       <c r="F4">
-        <v>149.842952</v>
+        <v>92.4184441566467</v>
       </c>
       <c r="G4">
-        <v>4.8324909209999998</v>
+        <v>4.9943711757659903</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -467,45 +467,45 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2289044.5440000002</v>
+        <v>3002218.7390449601</v>
       </c>
       <c r="E5">
-        <v>138944.7035</v>
+        <v>182874.43322029599</v>
       </c>
       <c r="F5">
-        <v>80.641412970000005</v>
+        <v>93.223654747009206</v>
       </c>
       <c r="G5">
-        <v>3.9347689149999998</v>
+        <v>4.8531749248504603</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2735307.69</v>
+        <v>2966258.1481800298</v>
       </c>
       <c r="E6">
-        <v>355796.98619999998</v>
+        <v>182537.04320557899</v>
       </c>
       <c r="F6">
-        <v>33.018606900000002</v>
+        <v>93.024292945861802</v>
       </c>
       <c r="G6">
-        <v>4.3069660660000002</v>
+        <v>4.8972518444061199</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -513,22 +513,22 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2175290.67</v>
+        <v>4918062.6398528498</v>
       </c>
       <c r="E7">
-        <v>288716.50089999998</v>
+        <v>542322.73491990694</v>
       </c>
       <c r="F7">
-        <v>41.679706099999997</v>
+        <v>28.831279039382899</v>
       </c>
       <c r="G7">
-        <v>4.5236830709999998</v>
+        <v>4.6963901519775302</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -536,22 +536,22 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1870321.6910000001</v>
+        <v>3468990.5285471999</v>
       </c>
       <c r="E8">
-        <v>289358.56920000003</v>
+        <v>266434.665879504</v>
       </c>
       <c r="F8">
-        <v>34.8624413</v>
+        <v>38.437680244445801</v>
       </c>
       <c r="G8">
-        <v>4.0511112210000002</v>
+        <v>5.0976459980010898</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -559,114 +559,68 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>1822504.3130000001</v>
+        <v>3207723.43131663</v>
       </c>
       <c r="E9">
-        <v>269217.26679999998</v>
+        <v>295751.54152186</v>
       </c>
       <c r="F9">
-        <v>26.18233919</v>
+        <v>63.032691001891997</v>
       </c>
       <c r="G9">
-        <v>3.7729218010999999</v>
+        <v>5.5594518184661803</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>7403786.8255937202</v>
+        <v>3081186.1906985301</v>
       </c>
       <c r="E10">
-        <v>1032292.5441065</v>
+        <v>303475.12471056799</v>
       </c>
       <c r="F10">
-        <v>48.272731304168701</v>
+        <v>51.168291091918903</v>
       </c>
       <c r="G10">
-        <v>4.2496557235717702</v>
+        <v>5.2658107280731201</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>9335453.78239513</v>
+        <v>3019121.4441772499</v>
       </c>
       <c r="E11">
-        <v>1209275.50285073</v>
+        <v>297374.099307806</v>
       </c>
       <c r="F11">
-        <v>39.574438810348497</v>
+        <v>40.0719380378723</v>
       </c>
       <c r="G11">
-        <v>3.9659571647643999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.25</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3059395.58549796</v>
-      </c>
-      <c r="E12">
-        <v>431476.26703821297</v>
-      </c>
-      <c r="F12">
-        <v>37.251019001007002</v>
-      </c>
-      <c r="G12">
-        <v>5.2880933284759504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0.25</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>3320471.2177955699</v>
-      </c>
-      <c r="E13">
-        <v>516775.024115521</v>
-      </c>
-      <c r="F13">
-        <v>29.6490190029144</v>
-      </c>
-      <c r="G13">
-        <v>4.9232871532440097</v>
+        <v>4.8842711448669398</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/FC_SA_FAresults.xlsx
+++ b/Python/output/case-study/FC_SA_FAresults.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899665B-7BE5-9D40-9B91-4085D4B7CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="17500" tabRatio="500"/>
+    <workbookView xWindow="17800" yWindow="5340" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FC_SA_FAresults" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -94,6 +95,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,11 +365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,16 +454,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3130824.2604558999</v>
+        <v>3132666.6752300998</v>
       </c>
       <c r="E4">
-        <v>195525.46190686501</v>
+        <v>195434.692801953</v>
       </c>
       <c r="F4">
-        <v>92.4184441566467</v>
+        <v>94.403269767761202</v>
       </c>
       <c r="G4">
-        <v>4.9943711757659903</v>
+        <v>5.0483090877532897</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -565,16 +569,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3207723.43131663</v>
+        <v>3206690.0685868501</v>
       </c>
       <c r="E9">
-        <v>295751.54152186</v>
+        <v>295806.34573619103</v>
       </c>
       <c r="F9">
-        <v>63.032691001891997</v>
+        <v>60.6284019947052</v>
       </c>
       <c r="G9">
-        <v>5.5594518184661803</v>
+        <v>5.4831590652465803</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">

--- a/Python/output/case-study/FC_SA_FAresults.xlsx
+++ b/Python/output/case-study/FC_SA_FAresults.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Desktop/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899665B-7BE5-9D40-9B91-4085D4B7CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E7B9E9A7-0EAE-B44D-A26C-137CE35341B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17800" yWindow="5340" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="4360" windowWidth="28040" windowHeight="17440" xr2:uid="{8B08349B-E712-1244-BB12-985A56DCB2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="FC_SA_FAresults" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -55,24 +47,324 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -80,18 +372,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -114,44 +595,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -179,14 +660,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -214,6 +712,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -275,13 +790,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -290,6 +798,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -354,27 +869,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983BE01F-1BD7-A344-8F55-70868418D29B}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -408,19 +943,22 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>6364747.8672661697</v>
+        <v>7234303.7975727599</v>
       </c>
       <c r="E2">
-        <v>873633.29803699895</v>
+        <v>6342787.4961291002</v>
       </c>
       <c r="F2">
-        <v>48.762481927871697</v>
+        <v>873088.29734596296</v>
       </c>
       <c r="G2">
-        <v>4.2374529838562003</v>
+        <v>43.057731866836498</v>
+      </c>
+      <c r="H2">
+        <v>4.8946499824523899</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -431,19 +969,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3486690.2033178098</v>
+        <v>3709845.2937742001</v>
       </c>
       <c r="E3">
-        <v>222230.122905678</v>
+        <v>3455825.0932930401</v>
       </c>
       <c r="F3">
-        <v>95.460665702819796</v>
+        <v>212654.96426216699</v>
       </c>
       <c r="G3">
-        <v>5.1047639846801696</v>
+        <v>90.388545751571598</v>
+      </c>
+      <c r="H3">
+        <v>6.3842518329620299</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -454,19 +995,22 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3132666.6752300998</v>
+        <v>3279925.7875484098</v>
       </c>
       <c r="E4">
-        <v>195434.692801953</v>
+        <v>3098092.50487509</v>
       </c>
       <c r="F4">
-        <v>94.403269767761202</v>
+        <v>183063.87272771</v>
       </c>
       <c r="G4">
-        <v>5.0483090877532897</v>
+        <v>89.925000905990601</v>
+      </c>
+      <c r="H4">
+        <v>6.3266470432281396</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -477,19 +1021,22 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3002218.7390449601</v>
+        <v>3139690.3008516598</v>
       </c>
       <c r="E5">
-        <v>182874.43322029599</v>
+        <v>2965634.3955898699</v>
       </c>
       <c r="F5">
-        <v>93.223654747009206</v>
+        <v>167605.08165061299</v>
       </c>
       <c r="G5">
-        <v>4.8531749248504603</v>
+        <v>96.515403985977102</v>
+      </c>
+      <c r="H5">
+        <v>5.85495829582214</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -500,19 +1047,22 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2966258.1481800298</v>
+        <v>3090691.2540291902</v>
       </c>
       <c r="E6">
-        <v>182537.04320557899</v>
+        <v>2924046.6131541599</v>
       </c>
       <c r="F6">
-        <v>93.024292945861802</v>
+        <v>166778.92722500901</v>
       </c>
       <c r="G6">
-        <v>4.8972518444061199</v>
+        <v>134.341982126235</v>
+      </c>
+      <c r="H6">
+        <v>6.4870078563690097</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -523,19 +1073,22 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>4918062.6398528498</v>
+        <v>4888378.1619288102</v>
       </c>
       <c r="E7">
-        <v>542322.73491990694</v>
+        <v>4832380.3635271704</v>
       </c>
       <c r="F7">
-        <v>28.831279039382899</v>
+        <v>527170.75267764705</v>
       </c>
       <c r="G7">
-        <v>4.6963901519775302</v>
+        <v>24.502418994903501</v>
+      </c>
+      <c r="H7">
+        <v>5.64424705505371</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -546,19 +1099,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3468990.5285471999</v>
+        <v>3421286.8377284501</v>
       </c>
       <c r="E8">
-        <v>266434.665879504</v>
+        <v>3322483.3014132199</v>
       </c>
       <c r="F8">
-        <v>38.437680244445801</v>
+        <v>225818.589561873</v>
       </c>
       <c r="G8">
-        <v>5.0976459980010898</v>
+        <v>32.447941303253103</v>
+      </c>
+      <c r="H8">
+        <v>5.9695291519165004</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -569,19 +1125,22 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3206690.0685868501</v>
+        <v>3124470.6658938001</v>
       </c>
       <c r="E9">
-        <v>295806.34573619103</v>
+        <v>3077598.9143366399</v>
       </c>
       <c r="F9">
-        <v>60.6284019947052</v>
+        <v>263191.50109585602</v>
       </c>
       <c r="G9">
-        <v>5.4831590652465803</v>
+        <v>62.654609918594304</v>
+      </c>
+      <c r="H9">
+        <v>7.0196681022643999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -592,19 +1151,22 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>3081186.1906985301</v>
+        <v>2975245.4091236498</v>
       </c>
       <c r="E10">
-        <v>303475.12471056799</v>
+        <v>2950743.3796608299</v>
       </c>
       <c r="F10">
-        <v>51.168291091918903</v>
+        <v>267700.25906729698</v>
       </c>
       <c r="G10">
-        <v>5.2658107280731201</v>
+        <v>57.907352209091101</v>
+      </c>
+      <c r="H10">
+        <v>6.80171298980712</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -615,19 +1177,22 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>3019121.4441772499</v>
+        <v>2920215.3118132101</v>
       </c>
       <c r="E11">
-        <v>297374.099307806</v>
+        <v>2892939.2434321898</v>
       </c>
       <c r="F11">
-        <v>40.0719380378723</v>
+        <v>264182.49869733799</v>
       </c>
       <c r="G11">
-        <v>4.8842711448669398</v>
+        <v>63.894500255584703</v>
+      </c>
+      <c r="H11">
+        <v>6.8935880661010698</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Python/output/case-study/FC_SA_FAresults.xlsx
+++ b/Python/output/case-study/FC_SA_FAresults.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Desktop/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E7B9E9A7-0EAE-B44D-A26C-137CE35341B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="4360" windowWidth="28040" windowHeight="17440" xr2:uid="{8B08349B-E712-1244-BB12-985A56DCB2FB}"/>
+    <workbookView xWindow="2520" yWindow="4360" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="FC_SA_FAresults" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>instance_option</t>
   </si>
@@ -42,11 +49,14 @@
   <si>
     <t>test_time</t>
   </si>
+  <si>
+    <t>LB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -900,11 +910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983BE01F-1BD7-A344-8F55-70868418D29B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,15 +930,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -943,19 +956,19 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>7234303.7975727599</v>
+        <v>7234279.07865653</v>
       </c>
       <c r="E2">
-        <v>6342787.4961291002</v>
+        <v>6342880.4636573996</v>
       </c>
       <c r="F2">
-        <v>873088.29734596296</v>
+        <v>873099.41119213204</v>
       </c>
       <c r="G2">
-        <v>43.057731866836498</v>
+        <v>43.1936388015747</v>
       </c>
       <c r="H2">
-        <v>4.8946499824523899</v>
+        <v>5.06329274177551</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -969,19 +982,19 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3709845.2937742001</v>
+        <v>3709850.2920581801</v>
       </c>
       <c r="E3">
-        <v>3455825.0932930401</v>
+        <v>3455676.9370984202</v>
       </c>
       <c r="F3">
-        <v>212654.96426216699</v>
+        <v>212526.66464894699</v>
       </c>
       <c r="G3">
-        <v>90.388545751571598</v>
+        <v>131.73842382430999</v>
       </c>
       <c r="H3">
-        <v>6.3842518329620299</v>
+        <v>6.9414899349212602</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -995,19 +1008,19 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3279925.7875484098</v>
+        <v>3279854.349891</v>
       </c>
       <c r="E4">
-        <v>3098092.50487509</v>
+        <v>3100418.8371999399</v>
       </c>
       <c r="F4">
-        <v>183063.87272771</v>
+        <v>183713.694034418</v>
       </c>
       <c r="G4">
-        <v>89.925000905990601</v>
+        <v>99.673047065734806</v>
       </c>
       <c r="H4">
-        <v>6.3266470432281396</v>
+        <v>6.2072639465331996</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1021,19 +1034,19 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3139690.3008516598</v>
+        <v>3140349.4965247302</v>
       </c>
       <c r="E5">
-        <v>2965634.3955898699</v>
+        <v>2959960.3577384902</v>
       </c>
       <c r="F5">
-        <v>167605.08165061299</v>
+        <v>167100.84757933699</v>
       </c>
       <c r="G5">
-        <v>96.515403985977102</v>
+        <v>124.717630863189</v>
       </c>
       <c r="H5">
-        <v>5.85495829582214</v>
+        <v>6.4844388961791903</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1047,19 +1060,19 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>3090691.2540291902</v>
+        <v>3090671.6440334101</v>
       </c>
       <c r="E6">
-        <v>2924046.6131541599</v>
+        <v>2922870.4704522998</v>
       </c>
       <c r="F6">
-        <v>166778.92722500901</v>
+        <v>166407.21527551999</v>
       </c>
       <c r="G6">
-        <v>134.341982126235</v>
+        <v>138.55235815048201</v>
       </c>
       <c r="H6">
-        <v>6.4870078563690097</v>
+        <v>6.6143000125885001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1073,19 +1086,19 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>4888378.1619288102</v>
+        <v>4888378.3609059099</v>
       </c>
       <c r="E7">
-        <v>4832380.3635271704</v>
+        <v>4832407.8515290804</v>
       </c>
       <c r="F7">
-        <v>527170.75267764705</v>
+        <v>527170.20557321305</v>
       </c>
       <c r="G7">
-        <v>24.502418994903501</v>
+        <v>24.474807024002001</v>
       </c>
       <c r="H7">
-        <v>5.64424705505371</v>
+        <v>5.4679908752441397</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1099,19 +1112,19 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3421286.8377284501</v>
+        <v>3421149.09784922</v>
       </c>
       <c r="E8">
-        <v>3322483.3014132199</v>
+        <v>3322949.1143276799</v>
       </c>
       <c r="F8">
-        <v>225818.589561873</v>
+        <v>225958.40904065399</v>
       </c>
       <c r="G8">
-        <v>32.447941303253103</v>
+        <v>41.296460151672299</v>
       </c>
       <c r="H8">
-        <v>5.9695291519165004</v>
+        <v>6.2209599018096897</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1125,19 +1138,19 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3124470.6658938001</v>
+        <v>3124531.7976661902</v>
       </c>
       <c r="E9">
-        <v>3077598.9143366399</v>
+        <v>3078117.6668686401</v>
       </c>
       <c r="F9">
-        <v>263191.50109585602</v>
+        <v>263259.74107469001</v>
       </c>
       <c r="G9">
-        <v>62.654609918594304</v>
+        <v>61.789297342300401</v>
       </c>
       <c r="H9">
-        <v>7.0196681022643999</v>
+        <v>6.77239966392517</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1151,19 +1164,19 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2975245.4091236498</v>
+        <v>2975301.1958625098</v>
       </c>
       <c r="E10">
-        <v>2950743.3796608299</v>
+        <v>2950489.6962703601</v>
       </c>
       <c r="F10">
-        <v>267700.25906729698</v>
+        <v>267698.29052467801</v>
       </c>
       <c r="G10">
-        <v>57.907352209091101</v>
+        <v>65.145031929016099</v>
       </c>
       <c r="H10">
-        <v>6.80171298980712</v>
+        <v>6.8974089622497496</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1177,19 +1190,19 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>2920215.3118132101</v>
+        <v>2918795.8360245801</v>
       </c>
       <c r="E11">
-        <v>2892939.2434321898</v>
+        <v>2893697.12872244</v>
       </c>
       <c r="F11">
-        <v>264182.49869733799</v>
+        <v>264198.90552844002</v>
       </c>
       <c r="G11">
-        <v>63.894500255584703</v>
+        <v>37.393470048904398</v>
       </c>
       <c r="H11">
-        <v>6.8935880661010698</v>
+        <v>5.9280660152435303</v>
       </c>
     </row>
   </sheetData>
